--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6929630000000001</v>
+        <v>0.5557103333333333</v>
       </c>
       <c r="H2">
-        <v>2.078889</v>
+        <v>1.667131</v>
       </c>
       <c r="I2">
-        <v>0.004631112856270776</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="J2">
-        <v>0.004631112856270775</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.682067</v>
+        <v>3.331721</v>
       </c>
       <c r="N2">
-        <v>11.046201</v>
+        <v>9.995163</v>
       </c>
       <c r="O2">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="P2">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="Q2">
-        <v>2.551536194521</v>
+        <v>1.851471787483667</v>
       </c>
       <c r="R2">
-        <v>22.963825750689</v>
+        <v>16.663246087353</v>
       </c>
       <c r="S2">
-        <v>6.323951032739103E-05</v>
+        <v>2.692834778431538E-05</v>
       </c>
       <c r="T2">
-        <v>6.323951032739102E-05</v>
+        <v>2.692834778431538E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6929630000000001</v>
+        <v>0.5557103333333333</v>
       </c>
       <c r="H3">
-        <v>2.078889</v>
+        <v>1.667131</v>
       </c>
       <c r="I3">
-        <v>0.004631112856270776</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="J3">
-        <v>0.004631112856270775</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.026151</v>
       </c>
       <c r="O3">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="P3">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="Q3">
-        <v>0.2370282251376667</v>
+        <v>0.1900809047534444</v>
       </c>
       <c r="R3">
-        <v>2.133254026239</v>
+        <v>1.710728142781</v>
       </c>
       <c r="S3">
-        <v>5.874715367026423E-06</v>
+        <v>2.764592334034274E-06</v>
       </c>
       <c r="T3">
-        <v>5.874715367026421E-06</v>
+        <v>2.764592334034274E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6929630000000001</v>
+        <v>0.5557103333333333</v>
       </c>
       <c r="H4">
-        <v>2.078889</v>
+        <v>1.667131</v>
       </c>
       <c r="I4">
-        <v>0.004631112856270776</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="J4">
-        <v>0.004631112856270775</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>148.360949</v>
+        <v>115.0401993333333</v>
       </c>
       <c r="N4">
-        <v>445.082847</v>
+        <v>345.120598</v>
       </c>
       <c r="O4">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="P4">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="Q4">
-        <v>102.808648301887</v>
+        <v>63.92902751825977</v>
       </c>
       <c r="R4">
-        <v>925.2778347169831</v>
+        <v>575.361247664338</v>
       </c>
       <c r="S4">
-        <v>0.002548099685982638</v>
+        <v>0.0009298024945140863</v>
       </c>
       <c r="T4">
-        <v>0.002548099685982638</v>
+        <v>0.0009298024945140863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6929630000000001</v>
+        <v>0.5557103333333333</v>
       </c>
       <c r="H5">
-        <v>2.078889</v>
+        <v>1.667131</v>
       </c>
       <c r="I5">
-        <v>0.004631112856270776</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="J5">
-        <v>0.004631112856270775</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2520656666666667</v>
+        <v>0.1870886666666667</v>
       </c>
       <c r="N5">
-        <v>0.756197</v>
+        <v>0.561266</v>
       </c>
       <c r="O5">
-        <v>0.0009348138593718677</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="P5">
-        <v>0.0009348138593718676</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="Q5">
-        <v>0.1746721805703334</v>
+        <v>0.1039671053162222</v>
       </c>
       <c r="R5">
-        <v>1.572049625133</v>
+        <v>0.935703947846</v>
       </c>
       <c r="S5">
-        <v>4.329228482357158E-06</v>
+        <v>1.51212802107495E-06</v>
       </c>
       <c r="T5">
-        <v>4.329228482357156E-06</v>
+        <v>1.51212802107495E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6929630000000001</v>
+        <v>0.5557103333333333</v>
       </c>
       <c r="H6">
-        <v>2.078889</v>
+        <v>1.667131</v>
       </c>
       <c r="I6">
-        <v>0.004631112856270776</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="J6">
-        <v>0.004631112856270775</v>
+        <v>0.001647566834174679</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>117.005497</v>
+        <v>84.94483066666666</v>
       </c>
       <c r="N6">
-        <v>351.016491</v>
+        <v>254.834492</v>
       </c>
       <c r="O6">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284896</v>
       </c>
       <c r="P6">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284897</v>
       </c>
       <c r="Q6">
-        <v>81.08048021761101</v>
+        <v>47.20472016471688</v>
       </c>
       <c r="R6">
-        <v>729.7243219584991</v>
+        <v>424.8424814824519</v>
       </c>
       <c r="S6">
-        <v>0.002009569716111364</v>
+        <v>0.0006865592715211683</v>
       </c>
       <c r="T6">
-        <v>0.002009569716111363</v>
+        <v>0.0006865592715211684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.06657</v>
       </c>
       <c r="I7">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="J7">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.682067</v>
+        <v>3.331721</v>
       </c>
       <c r="N7">
-        <v>11.046201</v>
+        <v>9.995163</v>
       </c>
       <c r="O7">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="P7">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="Q7">
-        <v>0.08170506673</v>
+        <v>0.07393088899</v>
       </c>
       <c r="R7">
-        <v>0.7353456005700001</v>
+        <v>0.66537800091</v>
       </c>
       <c r="S7">
-        <v>2.025050015895231E-06</v>
+        <v>1.07527249628366E-06</v>
       </c>
       <c r="T7">
-        <v>2.02505001589523E-06</v>
+        <v>1.075272496283661E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.06657</v>
       </c>
       <c r="I8">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="J8">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>1.026151</v>
       </c>
       <c r="O8">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="P8">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="Q8">
         <v>0.007590096896666667</v>
@@ -948,10 +948,10 @@
         <v>0.06831087207</v>
       </c>
       <c r="S8">
-        <v>1.88119616767874E-07</v>
+        <v>1.103925916299689E-07</v>
       </c>
       <c r="T8">
-        <v>1.88119616767874E-07</v>
+        <v>1.103925916299689E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.06657</v>
       </c>
       <c r="I9">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="J9">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.360949</v>
+        <v>115.0401993333333</v>
       </c>
       <c r="N9">
-        <v>445.082847</v>
+        <v>345.120598</v>
       </c>
       <c r="O9">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="P9">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="Q9">
-        <v>3.29212945831</v>
+        <v>2.552742023206667</v>
       </c>
       <c r="R9">
-        <v>29.62916512479</v>
+        <v>22.97467820886</v>
       </c>
       <c r="S9">
-        <v>8.159502315701521E-05</v>
+        <v>3.712782742316155E-05</v>
       </c>
       <c r="T9">
-        <v>8.159502315701521E-05</v>
+        <v>3.712782742316155E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>0.06657</v>
       </c>
       <c r="I10">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="J10">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2520656666666667</v>
+        <v>0.1870886666666667</v>
       </c>
       <c r="N10">
-        <v>0.756197</v>
+        <v>0.561266</v>
       </c>
       <c r="O10">
-        <v>0.0009348138593718677</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="P10">
-        <v>0.0009348138593718676</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="Q10">
-        <v>0.005593337143333334</v>
+        <v>0.004151497513333334</v>
       </c>
       <c r="R10">
-        <v>0.05034003429</v>
+        <v>0.03736347762</v>
       </c>
       <c r="S10">
-        <v>1.386301722076147E-07</v>
+        <v>6.03805953839017E-08</v>
       </c>
       <c r="T10">
-        <v>1.386301722076147E-07</v>
+        <v>6.03805953839017E-08</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.06657</v>
       </c>
       <c r="I11">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="J11">
-        <v>0.0001482970869738334</v>
+        <v>6.578878573489931E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.005497</v>
+        <v>84.94483066666666</v>
       </c>
       <c r="N11">
-        <v>351.016491</v>
+        <v>254.834492</v>
       </c>
       <c r="O11">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284896</v>
       </c>
       <c r="P11">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284897</v>
       </c>
       <c r="Q11">
-        <v>2.59635197843</v>
+        <v>1.884925792493333</v>
       </c>
       <c r="R11">
-        <v>23.36716780587</v>
+        <v>16.96433213244</v>
       </c>
       <c r="S11">
-        <v>6.435026401194747E-05</v>
+        <v>2.741491262844023E-05</v>
       </c>
       <c r="T11">
-        <v>6.435026401194747E-05</v>
+        <v>2.741491262844023E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.82857633333333</v>
+        <v>193.4389493333333</v>
       </c>
       <c r="H12">
-        <v>164.485729</v>
+        <v>580.3168479999999</v>
       </c>
       <c r="I12">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="J12">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.682067</v>
+        <v>3.331721</v>
       </c>
       <c r="N12">
-        <v>11.046201</v>
+        <v>9.995163</v>
       </c>
       <c r="O12">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="P12">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="Q12">
-        <v>201.8824915739476</v>
+        <v>644.4846097118026</v>
       </c>
       <c r="R12">
-        <v>1816.942424165529</v>
+        <v>5800.361487406223</v>
       </c>
       <c r="S12">
-        <v>0.005003632689289298</v>
+        <v>0.009373572867424145</v>
       </c>
       <c r="T12">
-        <v>0.005003632689289298</v>
+        <v>0.009373572867424147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.82857633333333</v>
+        <v>193.4389493333333</v>
       </c>
       <c r="H13">
-        <v>164.485729</v>
+        <v>580.3168479999999</v>
       </c>
       <c r="I13">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="J13">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>1.026151</v>
       </c>
       <c r="O13">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="P13">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="Q13">
-        <v>18.75413281100878</v>
+        <v>66.16585709911644</v>
       </c>
       <c r="R13">
-        <v>168.787195299079</v>
+        <v>595.492713892048</v>
       </c>
       <c r="S13">
-        <v>0.0004648188719132399</v>
+        <v>0.0009623355988771923</v>
       </c>
       <c r="T13">
-        <v>0.0004648188719132398</v>
+        <v>0.0009623355988771924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.82857633333333</v>
+        <v>193.4389493333333</v>
       </c>
       <c r="H14">
-        <v>164.485729</v>
+        <v>580.3168479999999</v>
       </c>
       <c r="I14">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="J14">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>148.360949</v>
+        <v>115.0401993333333</v>
       </c>
       <c r="N14">
-        <v>445.082847</v>
+        <v>345.120598</v>
       </c>
       <c r="O14">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="P14">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="Q14">
-        <v>8134.419617132274</v>
+        <v>22253.25529013723</v>
       </c>
       <c r="R14">
-        <v>73209.77655419047</v>
+        <v>200279.2976112351</v>
       </c>
       <c r="S14">
-        <v>0.2016105883544168</v>
+        <v>0.3236578606473947</v>
       </c>
       <c r="T14">
-        <v>0.2016105883544168</v>
+        <v>0.3236578606473947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.82857633333333</v>
+        <v>193.4389493333333</v>
       </c>
       <c r="H15">
-        <v>164.485729</v>
+        <v>580.3168479999999</v>
       </c>
       <c r="I15">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="J15">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2520656666666667</v>
+        <v>0.1870886666666667</v>
       </c>
       <c r="N15">
-        <v>0.756197</v>
+        <v>0.561266</v>
       </c>
       <c r="O15">
-        <v>0.0009348138593718677</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="P15">
-        <v>0.0009348138593718676</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="Q15">
-        <v>13.82040164584589</v>
+        <v>36.19023511217422</v>
       </c>
       <c r="R15">
-        <v>124.383614812613</v>
+        <v>325.712116009568</v>
       </c>
       <c r="S15">
-        <v>0.0003425369526357976</v>
+        <v>0.0005263613758982901</v>
       </c>
       <c r="T15">
-        <v>0.0003425369526357975</v>
+        <v>0.0005263613758982901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.82857633333333</v>
+        <v>193.4389493333333</v>
       </c>
       <c r="H16">
-        <v>164.485729</v>
+        <v>580.3168479999999</v>
       </c>
       <c r="I16">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="J16">
-        <v>0.3664226297050832</v>
+        <v>0.5735066962809692</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>117.005497</v>
+        <v>84.94483066666666</v>
       </c>
       <c r="N16">
-        <v>351.016491</v>
+        <v>254.834492</v>
       </c>
       <c r="O16">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284896</v>
       </c>
       <c r="P16">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284897</v>
       </c>
       <c r="Q16">
-        <v>6415.244823684105</v>
+        <v>16431.63879545791</v>
       </c>
       <c r="R16">
-        <v>57737.20341315694</v>
+        <v>147884.7491591212</v>
       </c>
       <c r="S16">
-        <v>0.1590010528368281</v>
+        <v>0.2389865657913748</v>
       </c>
       <c r="T16">
-        <v>0.159001052836828</v>
+        <v>0.2389865657913748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.186266</v>
+        <v>0.2750356666666667</v>
       </c>
       <c r="H17">
-        <v>0.558798</v>
+        <v>0.825107</v>
       </c>
       <c r="I17">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="J17">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.682067</v>
+        <v>3.331721</v>
       </c>
       <c r="N17">
-        <v>11.046201</v>
+        <v>9.995163</v>
       </c>
       <c r="O17">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="P17">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="Q17">
-        <v>0.685843891822</v>
+        <v>0.9163421063823334</v>
       </c>
       <c r="R17">
-        <v>6.172595026398001</v>
+        <v>8.247078957441</v>
       </c>
       <c r="S17">
-        <v>1.699855638849667E-05</v>
+        <v>1.332754789831939E-05</v>
       </c>
       <c r="T17">
-        <v>1.699855638849667E-05</v>
+        <v>1.33275478983194E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.186266</v>
+        <v>0.2750356666666667</v>
       </c>
       <c r="H18">
-        <v>0.558798</v>
+        <v>0.825107</v>
       </c>
       <c r="I18">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="J18">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>1.026151</v>
       </c>
       <c r="O18">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="P18">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="Q18">
-        <v>0.06371234738866667</v>
+        <v>0.0940760414618889</v>
       </c>
       <c r="R18">
-        <v>0.5734111264980001</v>
+        <v>0.8466843731570001</v>
       </c>
       <c r="S18">
-        <v>1.57910268305024E-06</v>
+        <v>1.368269492294257E-06</v>
       </c>
       <c r="T18">
-        <v>1.57910268305024E-06</v>
+        <v>1.368269492294258E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.186266</v>
+        <v>0.2750356666666667</v>
       </c>
       <c r="H19">
-        <v>0.558798</v>
+        <v>0.825107</v>
       </c>
       <c r="I19">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="J19">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>148.360949</v>
+        <v>115.0401993333333</v>
       </c>
       <c r="N19">
-        <v>445.082847</v>
+        <v>345.120598</v>
       </c>
       <c r="O19">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="P19">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="Q19">
-        <v>27.634600526434</v>
+        <v>31.64015791710955</v>
       </c>
       <c r="R19">
-        <v>248.711404737906</v>
+        <v>284.761421253986</v>
       </c>
       <c r="S19">
-        <v>0.0006849201704986297</v>
+        <v>0.0004601837209199722</v>
       </c>
       <c r="T19">
-        <v>0.0006849201704986297</v>
+        <v>0.0004601837209199722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.186266</v>
+        <v>0.2750356666666667</v>
       </c>
       <c r="H20">
-        <v>0.558798</v>
+        <v>0.825107</v>
       </c>
       <c r="I20">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="J20">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2520656666666667</v>
+        <v>0.1870886666666667</v>
       </c>
       <c r="N20">
-        <v>0.756197</v>
+        <v>0.561266</v>
       </c>
       <c r="O20">
-        <v>0.0009348138593718677</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="P20">
-        <v>0.0009348138593718676</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="Q20">
-        <v>0.04695126346733334</v>
+        <v>0.05145605616244445</v>
       </c>
       <c r="R20">
-        <v>0.422561371206</v>
+        <v>0.463104505462</v>
       </c>
       <c r="S20">
-        <v>1.163681282398538E-06</v>
+        <v>7.483919470546038E-07</v>
       </c>
       <c r="T20">
-        <v>1.163681282398538E-06</v>
+        <v>7.483919470546038E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.186266</v>
+        <v>0.2750356666666667</v>
       </c>
       <c r="H21">
-        <v>0.558798</v>
+        <v>0.825107</v>
       </c>
       <c r="I21">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="J21">
-        <v>0.001244826732864716</v>
+        <v>0.000815424179530803</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>117.005497</v>
+        <v>84.94483066666666</v>
       </c>
       <c r="N21">
-        <v>351.016491</v>
+        <v>254.834492</v>
       </c>
       <c r="O21">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284896</v>
       </c>
       <c r="P21">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284897</v>
       </c>
       <c r="Q21">
-        <v>21.794145904202</v>
+        <v>23.36285813229378</v>
       </c>
       <c r="R21">
-        <v>196.147313137818</v>
+        <v>210.265723190644</v>
       </c>
       <c r="S21">
-        <v>0.000540165222012141</v>
+        <v>0.0003397962492731625</v>
       </c>
       <c r="T21">
-        <v>0.0005401652220121409</v>
+        <v>0.0003397962492731625</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.90207400000001</v>
+        <v>142.9996416666667</v>
       </c>
       <c r="H22">
-        <v>281.706222</v>
+        <v>428.998925</v>
       </c>
       <c r="I22">
-        <v>0.6275531336188076</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="J22">
-        <v>0.6275531336188075</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.682067</v>
+        <v>3.331721</v>
       </c>
       <c r="N22">
-        <v>11.046201</v>
+        <v>9.995163</v>
       </c>
       <c r="O22">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="P22">
-        <v>0.01365535936826962</v>
+        <v>0.01634431285320494</v>
       </c>
       <c r="Q22">
-        <v>345.753727906958</v>
+        <v>476.4349091333083</v>
       </c>
       <c r="R22">
-        <v>3111.783551162622</v>
+        <v>4287.914182199775</v>
       </c>
       <c r="S22">
-        <v>0.008569463562248542</v>
+        <v>0.006929408817601873</v>
       </c>
       <c r="T22">
-        <v>0.008569463562248539</v>
+        <v>0.006929408817601875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.90207400000001</v>
+        <v>142.9996416666667</v>
       </c>
       <c r="H23">
-        <v>281.706222</v>
+        <v>428.998925</v>
       </c>
       <c r="I23">
-        <v>0.6275531336188076</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="J23">
-        <v>0.6275531336188075</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>1.026151</v>
       </c>
       <c r="O23">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="P23">
-        <v>0.001268532110823372</v>
+        <v>0.001677984939177991</v>
       </c>
       <c r="Q23">
-        <v>32.11923571239134</v>
+        <v>48.91307509863056</v>
       </c>
       <c r="R23">
-        <v>289.073121411522</v>
+        <v>440.217675887675</v>
       </c>
       <c r="S23">
-        <v>0.0007960713012432876</v>
+        <v>0.0007114060858828396</v>
       </c>
       <c r="T23">
-        <v>0.0007960713012432873</v>
+        <v>0.0007114060858828397</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.90207400000001</v>
+        <v>142.9996416666667</v>
       </c>
       <c r="H24">
-        <v>281.706222</v>
+        <v>428.998925</v>
       </c>
       <c r="I24">
-        <v>0.6275531336188076</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="J24">
-        <v>0.6275531336188075</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>148.360949</v>
+        <v>115.0401993333333</v>
       </c>
       <c r="N24">
-        <v>445.082847</v>
+        <v>345.120598</v>
       </c>
       <c r="O24">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="P24">
-        <v>0.5502132565248057</v>
+        <v>0.5643488781320699</v>
       </c>
       <c r="Q24">
-        <v>13931.40081170823</v>
+        <v>16450.70728192857</v>
       </c>
       <c r="R24">
-        <v>125382.6073053741</v>
+        <v>148056.3655373571</v>
       </c>
       <c r="S24">
-        <v>0.3452880532907506</v>
+        <v>0.2392639034418179</v>
       </c>
       <c r="T24">
-        <v>0.3452880532907506</v>
+        <v>0.2392639034418179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>93.90207400000001</v>
+        <v>142.9996416666667</v>
       </c>
       <c r="H25">
-        <v>281.706222</v>
+        <v>428.998925</v>
       </c>
       <c r="I25">
-        <v>0.6275531336188076</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="J25">
-        <v>0.6275531336188075</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2520656666666667</v>
+        <v>0.1870886666666667</v>
       </c>
       <c r="N25">
-        <v>0.756197</v>
+        <v>0.561266</v>
       </c>
       <c r="O25">
-        <v>0.0009348138593718677</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="P25">
-        <v>0.0009348138593718676</v>
+        <v>0.0009177946470574741</v>
       </c>
       <c r="Q25">
-        <v>23.66948888419267</v>
+        <v>26.75361229322778</v>
       </c>
       <c r="R25">
-        <v>213.025399957734</v>
+        <v>240.78251063905</v>
       </c>
       <c r="S25">
-        <v>0.0005866453667991069</v>
+        <v>0.0003891123705956705</v>
       </c>
       <c r="T25">
-        <v>0.0005866453667991067</v>
+        <v>0.0003891123705956705</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>93.90207400000001</v>
+        <v>142.9996416666667</v>
       </c>
       <c r="H26">
-        <v>281.706222</v>
+        <v>428.998925</v>
       </c>
       <c r="I26">
-        <v>0.6275531336188076</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="J26">
-        <v>0.6275531336188075</v>
+        <v>0.4239645239195904</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.005497</v>
+        <v>84.94483066666666</v>
       </c>
       <c r="N26">
-        <v>351.016491</v>
+        <v>254.834492</v>
       </c>
       <c r="O26">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284896</v>
       </c>
       <c r="P26">
-        <v>0.4339280381367295</v>
+        <v>0.4167110294284897</v>
       </c>
       <c r="Q26">
-        <v>10987.05883770078</v>
+        <v>12147.08034676901</v>
       </c>
       <c r="R26">
-        <v>98883.52953930703</v>
+        <v>109323.7231209211</v>
       </c>
       <c r="S26">
-        <v>0.272312900097766</v>
+        <v>0.176670693203692</v>
       </c>
       <c r="T26">
-        <v>0.272312900097766</v>
+        <v>0.1766706932036921</v>
       </c>
     </row>
   </sheetData>
